--- a/日报与周报-叶家俊2017.12.08 .xlsx
+++ b/日报与周报-叶家俊2017.12.08 .xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>时间</t>
   </si>
@@ -81,6 +81,30 @@
   </si>
   <si>
     <t>实现自动获取主Router ip地址并往该地址进行mqtt数据推送；编写测试的定位代码，实现自动读取，解析JSON数据。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成正式代码整合，已经实现基本实时监测距离数据与定位计算框架，待完善细节以及在数量化场景测试算法改进算法。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写测试代码，验证测试代码功能，将测试代码整合到正式代码。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>正式代码细节改进；</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始编写前端测试代码，目的实现在本地http服务器下实现数据请求与返回，获取未来由于前端显示的数据。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>本周开发进展顺利，Router的代码已完成框架，可以实现单个设备实时的动态计算，细节与稳定性有待更进一步的提高；开始前端展示定位轨迹的实现。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>下周计划：完成前端数据读取框架；完成前端定位轨迹绘制功能。如都能完成，则开始提高定位的精度与逻辑，完善细节要求，提高稳定性。</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -196,9 +220,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -206,6 +227,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -540,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -586,122 +610,134 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
+      <c r="F2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="10"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="10"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="10"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
+      <c r="F5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="10"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="10"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="10"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="10"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="13">
